--- a/www/IndicatorsPerCountry/CotedIvoire_GDPperCapita_TerritorialRef_1960_2012_CCode_384.xlsx
+++ b/www/IndicatorsPerCountry/CotedIvoire_GDPperCapita_TerritorialRef_1960_2012_CCode_384.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/CotedIvoire_GDPperCapita_TerritorialRef_1960_2012_CCode_384.xlsx
+++ b/www/IndicatorsPerCountry/CotedIvoire_GDPperCapita_TerritorialRef_1960_2012_CCode_384.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="88">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,211 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1179</t>
-  </si>
-  <si>
-    <t>1191</t>
-  </si>
-  <si>
-    <t>1256</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>1335</t>
-  </si>
-  <si>
-    <t>1492</t>
-  </si>
-  <si>
-    <t>1688</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>1574</t>
-  </si>
-  <si>
-    <t>1730</t>
-  </si>
-  <si>
-    <t>1717</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1866</t>
-  </si>
-  <si>
-    <t>1839</t>
-  </si>
-  <si>
-    <t>1764</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>2041</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1820</t>
-  </si>
-  <si>
-    <t>1696</t>
-  </si>
-  <si>
-    <t>1716</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1618</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>1307.35384537</t>
-  </si>
-  <si>
-    <t>1252.84749745</t>
-  </si>
-  <si>
-    <t>1214.09030155</t>
-  </si>
-  <si>
-    <t>1328.36023338</t>
-  </si>
-  <si>
-    <t>1282.57876261</t>
-  </si>
-  <si>
-    <t>1311.54939444</t>
-  </si>
-  <si>
-    <t>1377.82082198</t>
-  </si>
-  <si>
-    <t>1419.07265162</t>
-  </si>
-  <si>
-    <t>1449.07375092</t>
-  </si>
-  <si>
-    <t>1438.53877527</t>
-  </si>
-  <si>
-    <t>1337.19168614</t>
-  </si>
-  <si>
-    <t>1304.50806627</t>
-  </si>
-  <si>
-    <t>1256.63669283</t>
-  </si>
-  <si>
-    <t>1209.55114014</t>
-  </si>
-  <si>
-    <t>1199.68137273</t>
-  </si>
-  <si>
-    <t>1195.5947253</t>
-  </si>
-  <si>
-    <t>1178.99600555</t>
-  </si>
-  <si>
-    <t>1172.20178306</t>
-  </si>
-  <si>
-    <t>1173.78838034</t>
-  </si>
-  <si>
-    <t>1191.96471662</t>
-  </si>
-  <si>
-    <t>1194.90379319</t>
+    <t>583.68</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>590.72</t>
+  </si>
+  <si>
+    <t>1659</t>
+  </si>
+  <si>
+    <t>1686</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1796</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>2691</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>2595</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>2737</t>
+  </si>
+  <si>
+    <t>2882</t>
+  </si>
+  <si>
+    <t>2874</t>
+  </si>
+  <si>
+    <t>2887</t>
+  </si>
+  <si>
+    <t>2974</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3033</t>
+  </si>
+  <si>
+    <t>3202</t>
+  </si>
+  <si>
+    <t>3139</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>3242</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>2901</t>
+  </si>
+  <si>
+    <t>2703</t>
+  </si>
+  <si>
+    <t>2735</t>
+  </si>
+  <si>
+    <t>2718</t>
+  </si>
+  <si>
+    <t>2579</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>2036.29881728318</t>
+  </si>
+  <si>
+    <t>2011.56935464769</t>
+  </si>
+  <si>
+    <t>1983.23356145862</t>
+  </si>
+  <si>
+    <t>1951.54080732891</t>
+  </si>
+  <si>
+    <t>2035.16816266944</t>
+  </si>
+  <si>
+    <t>2179.03571310701</t>
+  </si>
+  <si>
+    <t>2288.80863322093</t>
+  </si>
+  <si>
+    <t>2393.4989521022</t>
+  </si>
+  <si>
+    <t>2417.45754507127</t>
+  </si>
+  <si>
+    <t>2352.85633807193</t>
+  </si>
+  <si>
+    <t>2342.82754867755</t>
+  </si>
+  <si>
+    <t>2298.45658483479</t>
+  </si>
+  <si>
+    <t>2263.09256669759</t>
+  </si>
+  <si>
+    <t>2280.78804896129</t>
+  </si>
+  <si>
+    <t>2312.84263401067</t>
+  </si>
+  <si>
+    <t>2343.92693945415</t>
+  </si>
+  <si>
+    <t>2380.11539400898</t>
+  </si>
+  <si>
+    <t>2435.27051839537</t>
+  </si>
+  <si>
+    <t>2508.82212576133</t>
+  </si>
+  <si>
+    <t>2555.01628907294</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>3218</t>
+  </si>
+  <si>
+    <t>3395</t>
   </si>
   <si>
     <t>Description</t>
@@ -331,7 +355,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1950.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -348,7 +372,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1951.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -365,10 +389,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1952.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -382,10 +406,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1953.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -399,10 +423,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1954.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -416,10 +440,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1955.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -433,10 +457,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1956.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -450,10 +474,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1957.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -467,10 +491,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1958.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -484,10 +508,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1959.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -501,10 +525,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1960.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -518,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1961.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -535,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1962.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -552,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1963.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -569,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1964.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1965.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -603,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1966.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -620,10 +644,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1967.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -637,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1968.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -654,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1969.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1970.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -688,10 +712,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1971.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -705,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1972.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -722,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1973.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -739,10 +763,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1974.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -756,10 +780,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1975.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -773,10 +797,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1976.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -790,10 +814,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1977.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -807,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1978.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -824,10 +848,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1979.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -841,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1980.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -858,10 +882,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1981.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -875,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1982.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -892,10 +916,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1983.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -909,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1984.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -926,10 +950,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1985.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -943,10 +967,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1986.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -960,10 +984,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1987.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -977,10 +1001,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1988.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +1018,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1989.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1011,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1990.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1028,10 +1052,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1991.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1045,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1992.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1062,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1993.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1079,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1994.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1096,10 +1120,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1995.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1996.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -1130,10 +1154,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1997.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1147,10 +1171,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1998.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1164,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1999.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1181,10 +1205,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>2000.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1198,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>2001.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1215,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2002.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1232,10 +1256,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2003.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1249,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2004.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1266,10 +1290,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>2005.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1283,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>2006.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1300,10 +1324,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>2007.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1317,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>2008.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1334,10 +1358,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2009.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1351,10 +1375,1183 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E62" t="s">
-        <v>67</v>
+      <c r="E125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1372,50 +2569,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
